--- a/biology/Zoologie/Anthocharis_sara/Anthocharis_sara.xlsx
+++ b/biology/Zoologie/Anthocharis_sara/Anthocharis_sara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthocharis sara est une espèce de lépidoptères (papillons) de la famille des Pieridae, de la sous-famille des Pierinae et du genre Anthocharis.
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Noms vernaculaires
-Anthocharis sara se nomme Sara's Orange Tip ou Pacific Orange Tip en anglais.
-Sous-espèces
-Selon ITIS      (6 juin 2018)[1] :
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis sara se nomme Sara's Orange Tip ou Pacific Orange Tip en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anthocharis_sara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_sara</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (6 juin 2018) :
 Anthocharis sara alaskensis Gunder, 1932 présente au Canada
 Anthocharis sara browningi Skinner, 1905
 Anthocharis sara flora W. G. Wright, 1892 présente au Canada en Colombie-Britannique
@@ -527,38 +579,7 @@
 Anthocharis sara sara Lucas, 1852
 Anthocharis sara stella W. H. Edwards, 1879
 Anthocharis sara sulfuris Pelham, 2008
-Anthocharis sara thoosa (Scudder, 1878) présente des Montagnes Rocheuses jusqu'au Mexique[2].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Anthocharis_sara</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anthocharis_sara</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthocharis sara présente le même dimorphisme sexuel que les autres papillons « Aurore » : les ailes antérieures du mâle ont un apex orange moins intense sur le revers. Le revers des ailes postérieures est marbré de vert.
-</t>
+Anthocharis sara thoosa (Scudder, 1878) présente des Montagnes Rocheuses jusqu'au Mexique.</t>
         </is>
       </c>
     </row>
@@ -583,18 +604,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chenille
-La chenille est verte avec une bande crème[3].
-Période de vol et hivernation
-Vole de mars à juin au Canada en une seule génération, mais en deux générations de février à avril puis de mai à juin en Californie.
-C'est la chrysalide qui hiverne.
-Plantes hôtes
-Les plantes hôtes de la chenille sont des moutardes.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis sara présente le même dimorphisme sexuel que les autres papillons « Aurore » : les ailes antérieures du mâle ont un apex orange moins intense sur le revers. Le revers des ailes postérieures est marbré de vert.
 </t>
         </is>
       </c>
@@ -620,15 +637,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anthocharis sara est présente dans l'ouest de l'Amérique du Nord de l'Alaska au Mexique.
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte avec une bande crème.
 </t>
         </is>
       </c>
@@ -654,10 +674,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vole de mars à juin au Canada en une seule génération, mais en deux générations de février à avril puis de mai à juin en Californie.
+C'est la chrysalide qui hiverne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anthocharis_sara</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_sara</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des moutardes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anthocharis_sara</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_sara</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis sara est présente dans l'ouest de l'Amérique du Nord de l'Alaska au Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anthocharis_sara</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_sara</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anthocharis_sara</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthocharis_sara</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission de Cuba de 1984 (valeur faciale : 3 c.).
 </t>
